--- a/Data/05062017_5thIpam/Processed/5thiPAM_Genotypes.xlsx
+++ b/Data/05062017_5thIpam/Processed/5thiPAM_Genotypes.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10120" yWindow="0" windowWidth="18680" windowHeight="17900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="920" yWindow="0" windowWidth="14400" windowHeight="17900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Genotypes.csv" sheetId="1" r:id="rId1"/>
     <sheet name="rGenotypes.csv" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4245" uniqueCount="700">
   <si>
     <t>Picture</t>
   </si>
@@ -2113,6 +2114,21 @@
   </si>
   <si>
     <t>1729M</t>
+  </si>
+  <si>
+    <t>1753E</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Small</t>
   </si>
 </sst>
 </file>
@@ -2429,7 +2445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V306"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0">
+    <sheetView topLeftCell="A243" workbookViewId="0">
       <selection sqref="A1:F279"/>
     </sheetView>
   </sheetViews>
@@ -10306,7 +10322,7 @@
         <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>70</v>
+        <v>695</v>
       </c>
       <c r="C177" t="s">
         <v>556</v>
@@ -14988,10 +15004,6327 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F279"/>
+  <dimension ref="A1:G274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="E283" sqref="E283"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D3" t="s">
+        <v>645</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D4" t="s">
+        <v>645</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>435</v>
+      </c>
+      <c r="G5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>563</v>
+      </c>
+      <c r="D7" t="s">
+        <v>645</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G7" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D8" t="s">
+        <v>645</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>435</v>
+      </c>
+      <c r="G8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>541</v>
+      </c>
+      <c r="D9" t="s">
+        <v>645</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>435</v>
+      </c>
+      <c r="G9" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>558</v>
+      </c>
+      <c r="D10" t="s">
+        <v>645</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>435</v>
+      </c>
+      <c r="G10" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>541</v>
+      </c>
+      <c r="D11" t="s">
+        <v>645</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>435</v>
+      </c>
+      <c r="G11" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>580</v>
+      </c>
+      <c r="C12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D12" t="s">
+        <v>665</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>435</v>
+      </c>
+      <c r="G12" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>556</v>
+      </c>
+      <c r="D13" t="s">
+        <v>665</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>435</v>
+      </c>
+      <c r="G13" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>558</v>
+      </c>
+      <c r="D14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>435</v>
+      </c>
+      <c r="G14" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" t="s">
+        <v>554</v>
+      </c>
+      <c r="D15" t="s">
+        <v>665</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>435</v>
+      </c>
+      <c r="G15" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" t="s">
+        <v>542</v>
+      </c>
+      <c r="D16" t="s">
+        <v>665</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G16" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>555</v>
+      </c>
+      <c r="D17" t="s">
+        <v>665</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>435</v>
+      </c>
+      <c r="G17" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>541</v>
+      </c>
+      <c r="D18" t="s">
+        <v>665</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>435</v>
+      </c>
+      <c r="G18" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>545</v>
+      </c>
+      <c r="D19" t="s">
+        <v>665</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>435</v>
+      </c>
+      <c r="G19" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" t="s">
+        <v>562</v>
+      </c>
+      <c r="D20" t="s">
+        <v>665</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>435</v>
+      </c>
+      <c r="G20" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" t="s">
+        <v>555</v>
+      </c>
+      <c r="D21" t="s">
+        <v>665</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>435</v>
+      </c>
+      <c r="G21" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" t="s">
+        <v>560</v>
+      </c>
+      <c r="D22" t="s">
+        <v>666</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>435</v>
+      </c>
+      <c r="G22" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" t="s">
+        <v>544</v>
+      </c>
+      <c r="D23" t="s">
+        <v>666</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>435</v>
+      </c>
+      <c r="G23" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D24" t="s">
+        <v>666</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>435</v>
+      </c>
+      <c r="G24" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" t="s">
+        <v>547</v>
+      </c>
+      <c r="D25" t="s">
+        <v>666</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>435</v>
+      </c>
+      <c r="G25" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
+        <v>569</v>
+      </c>
+      <c r="D26" t="s">
+        <v>666</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>540</v>
+      </c>
+      <c r="D27" t="s">
+        <v>666</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>435</v>
+      </c>
+      <c r="G27" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>565</v>
+      </c>
+      <c r="D28" t="s">
+        <v>666</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>435</v>
+      </c>
+      <c r="G28" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>556</v>
+      </c>
+      <c r="D29" t="s">
+        <v>666</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>435</v>
+      </c>
+      <c r="G29" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>548</v>
+      </c>
+      <c r="D30" t="s">
+        <v>666</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>435</v>
+      </c>
+      <c r="G30" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
+        <v>549</v>
+      </c>
+      <c r="D31" t="s">
+        <v>666</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>435</v>
+      </c>
+      <c r="G31" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" t="s">
+        <v>557</v>
+      </c>
+      <c r="D32" t="s">
+        <v>667</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>435</v>
+      </c>
+      <c r="G32" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>549</v>
+      </c>
+      <c r="D33" t="s">
+        <v>667</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>435</v>
+      </c>
+      <c r="G33" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" t="s">
+        <v>559</v>
+      </c>
+      <c r="D34" t="s">
+        <v>667</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>435</v>
+      </c>
+      <c r="G34" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" t="s">
+        <v>567</v>
+      </c>
+      <c r="D35" t="s">
+        <v>667</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>435</v>
+      </c>
+      <c r="G35" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>561</v>
+      </c>
+      <c r="D36" t="s">
+        <v>667</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>435</v>
+      </c>
+      <c r="G36" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" t="s">
+        <v>543</v>
+      </c>
+      <c r="D37" t="s">
+        <v>668</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>435</v>
+      </c>
+      <c r="G37" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>546</v>
+      </c>
+      <c r="D38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>435</v>
+      </c>
+      <c r="G38" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>555</v>
+      </c>
+      <c r="D39" t="s">
+        <v>668</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>435</v>
+      </c>
+      <c r="G39" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s">
+        <v>560</v>
+      </c>
+      <c r="D40" t="s">
+        <v>668</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>435</v>
+      </c>
+      <c r="G40" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" t="s">
+        <v>542</v>
+      </c>
+      <c r="D41" t="s">
+        <v>668</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>435</v>
+      </c>
+      <c r="G41" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" t="s">
+        <v>554</v>
+      </c>
+      <c r="D42" t="s">
+        <v>669</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>435</v>
+      </c>
+      <c r="G42" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>546</v>
+      </c>
+      <c r="D43" t="s">
+        <v>669</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>435</v>
+      </c>
+      <c r="G43" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>688</v>
+      </c>
+      <c r="C44" t="s">
+        <v>553</v>
+      </c>
+      <c r="D44" t="s">
+        <v>669</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>435</v>
+      </c>
+      <c r="G44" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" t="s">
+        <v>554</v>
+      </c>
+      <c r="D45" t="s">
+        <v>669</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>435</v>
+      </c>
+      <c r="G45" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" t="s">
+        <v>550</v>
+      </c>
+      <c r="D46" t="s">
+        <v>669</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>435</v>
+      </c>
+      <c r="G46" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>548</v>
+      </c>
+      <c r="D47" t="s">
+        <v>669</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>435</v>
+      </c>
+      <c r="G47" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>570</v>
+      </c>
+      <c r="D48" t="s">
+        <v>669</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>435</v>
+      </c>
+      <c r="G48" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" t="s">
+        <v>549</v>
+      </c>
+      <c r="D49" t="s">
+        <v>669</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>435</v>
+      </c>
+      <c r="G49" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" t="s">
+        <v>549</v>
+      </c>
+      <c r="D50" t="s">
+        <v>669</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>435</v>
+      </c>
+      <c r="G50" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>552</v>
+      </c>
+      <c r="D51" t="s">
+        <v>669</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>435</v>
+      </c>
+      <c r="G51" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>556</v>
+      </c>
+      <c r="D52" t="s">
+        <v>670</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>435</v>
+      </c>
+      <c r="G52" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>545</v>
+      </c>
+      <c r="D53" t="s">
+        <v>670</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>435</v>
+      </c>
+      <c r="G53" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>546</v>
+      </c>
+      <c r="D54" t="s">
+        <v>670</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>435</v>
+      </c>
+      <c r="G54" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" t="s">
+        <v>551</v>
+      </c>
+      <c r="D55" t="s">
+        <v>670</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>435</v>
+      </c>
+      <c r="G55" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="s">
+        <v>555</v>
+      </c>
+      <c r="D56" t="s">
+        <v>670</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>435</v>
+      </c>
+      <c r="G56" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>566</v>
+      </c>
+      <c r="D57" t="s">
+        <v>670</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>435</v>
+      </c>
+      <c r="G57" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" t="s">
+        <v>567</v>
+      </c>
+      <c r="D58" t="s">
+        <v>670</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>435</v>
+      </c>
+      <c r="G58" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>540</v>
+      </c>
+      <c r="D59" t="s">
+        <v>670</v>
+      </c>
+      <c r="E59">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>435</v>
+      </c>
+      <c r="G59" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" t="s">
+        <v>550</v>
+      </c>
+      <c r="D60" t="s">
+        <v>670</v>
+      </c>
+      <c r="E60">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>435</v>
+      </c>
+      <c r="G60" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" t="s">
+        <v>569</v>
+      </c>
+      <c r="D61" t="s">
+        <v>670</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>435</v>
+      </c>
+      <c r="G61" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" t="s">
+        <v>543</v>
+      </c>
+      <c r="D62" t="s">
+        <v>671</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>435</v>
+      </c>
+      <c r="G62" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" t="s">
+        <v>544</v>
+      </c>
+      <c r="D63" t="s">
+        <v>671</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>435</v>
+      </c>
+      <c r="G63" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>563</v>
+      </c>
+      <c r="D64" t="s">
+        <v>671</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>435</v>
+      </c>
+      <c r="G64" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" t="s">
+        <v>564</v>
+      </c>
+      <c r="D65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>435</v>
+      </c>
+      <c r="G65" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" t="s">
+        <v>564</v>
+      </c>
+      <c r="D66" t="s">
+        <v>671</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>435</v>
+      </c>
+      <c r="G66" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" t="s">
+        <v>567</v>
+      </c>
+      <c r="D67" t="s">
+        <v>671</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>435</v>
+      </c>
+      <c r="G67" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" t="s">
+        <v>568</v>
+      </c>
+      <c r="D68" t="s">
+        <v>671</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>435</v>
+      </c>
+      <c r="G68" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" t="s">
+        <v>540</v>
+      </c>
+      <c r="D69" t="s">
+        <v>671</v>
+      </c>
+      <c r="E69">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>435</v>
+      </c>
+      <c r="G69" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>689</v>
+      </c>
+      <c r="C70" t="s">
+        <v>553</v>
+      </c>
+      <c r="D70" t="s">
+        <v>671</v>
+      </c>
+      <c r="E70">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>435</v>
+      </c>
+      <c r="G70" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" t="s">
+        <v>564</v>
+      </c>
+      <c r="D71" t="s">
+        <v>671</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>435</v>
+      </c>
+      <c r="G71" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" t="s">
+        <v>550</v>
+      </c>
+      <c r="D72" t="s">
+        <v>672</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>435</v>
+      </c>
+      <c r="G72" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" t="s">
+        <v>560</v>
+      </c>
+      <c r="D73" t="s">
+        <v>672</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>435</v>
+      </c>
+      <c r="G73" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" t="s">
+        <v>548</v>
+      </c>
+      <c r="D74" t="s">
+        <v>672</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>435</v>
+      </c>
+      <c r="G74" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>561</v>
+      </c>
+      <c r="D75" t="s">
+        <v>672</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>435</v>
+      </c>
+      <c r="G75" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>547</v>
+      </c>
+      <c r="D76" t="s">
+        <v>672</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>435</v>
+      </c>
+      <c r="G76" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>534</v>
+      </c>
+      <c r="C77" t="s">
+        <v>569</v>
+      </c>
+      <c r="D77" t="s">
+        <v>646</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>435</v>
+      </c>
+      <c r="G77" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>694</v>
+      </c>
+      <c r="C78">
+        <v>1729</v>
+      </c>
+      <c r="D78" t="s">
+        <v>646</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>435</v>
+      </c>
+      <c r="G78" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" t="s">
+        <v>554</v>
+      </c>
+      <c r="D79" t="s">
+        <v>646</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79" t="s">
+        <v>435</v>
+      </c>
+      <c r="G79" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" t="s">
+        <v>568</v>
+      </c>
+      <c r="D80" t="s">
+        <v>646</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>435</v>
+      </c>
+      <c r="G80" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" t="s">
+        <v>564</v>
+      </c>
+      <c r="D81" t="s">
+        <v>646</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81" t="s">
+        <v>435</v>
+      </c>
+      <c r="G81" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" t="s">
+        <v>559</v>
+      </c>
+      <c r="D82" t="s">
+        <v>646</v>
+      </c>
+      <c r="E82">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>435</v>
+      </c>
+      <c r="G82" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>545</v>
+      </c>
+      <c r="D83" t="s">
+        <v>646</v>
+      </c>
+      <c r="E83">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
+        <v>435</v>
+      </c>
+      <c r="G83" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>541</v>
+      </c>
+      <c r="D84" t="s">
+        <v>646</v>
+      </c>
+      <c r="E84">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>435</v>
+      </c>
+      <c r="G84" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>556</v>
+      </c>
+      <c r="D85" t="s">
+        <v>646</v>
+      </c>
+      <c r="E85">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>435</v>
+      </c>
+      <c r="G85" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" t="s">
+        <v>566</v>
+      </c>
+      <c r="D86" t="s">
+        <v>646</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>435</v>
+      </c>
+      <c r="G86" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>13</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>547</v>
+      </c>
+      <c r="D87" t="s">
+        <v>648</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>435</v>
+      </c>
+      <c r="G87" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" t="s">
+        <v>545</v>
+      </c>
+      <c r="D88" t="s">
+        <v>648</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>435</v>
+      </c>
+      <c r="G88" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
+        <v>690</v>
+      </c>
+      <c r="C89" t="s">
+        <v>561</v>
+      </c>
+      <c r="D89" t="s">
+        <v>648</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89" t="s">
+        <v>435</v>
+      </c>
+      <c r="G89" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>603</v>
+      </c>
+      <c r="C90" t="s">
+        <v>557</v>
+      </c>
+      <c r="D90" t="s">
+        <v>648</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>435</v>
+      </c>
+      <c r="G90" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>13</v>
+      </c>
+      <c r="B91" t="s">
+        <v>211</v>
+      </c>
+      <c r="C91" t="s">
+        <v>554</v>
+      </c>
+      <c r="D91" t="s">
+        <v>648</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>435</v>
+      </c>
+      <c r="G91" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92" t="s">
+        <v>546</v>
+      </c>
+      <c r="D92" t="s">
+        <v>648</v>
+      </c>
+      <c r="E92">
+        <v>6</v>
+      </c>
+      <c r="F92" t="s">
+        <v>435</v>
+      </c>
+      <c r="G92" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>605</v>
+      </c>
+      <c r="C93" t="s">
+        <v>544</v>
+      </c>
+      <c r="D93" t="s">
+        <v>647</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>441</v>
+      </c>
+      <c r="G93" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" t="s">
+        <v>552</v>
+      </c>
+      <c r="D94" t="s">
+        <v>647</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>441</v>
+      </c>
+      <c r="G94" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>244</v>
+      </c>
+      <c r="C95" t="s">
+        <v>551</v>
+      </c>
+      <c r="D95" t="s">
+        <v>647</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95" t="s">
+        <v>441</v>
+      </c>
+      <c r="G95" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" t="s">
+        <v>548</v>
+      </c>
+      <c r="D96" t="s">
+        <v>647</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96" t="s">
+        <v>441</v>
+      </c>
+      <c r="G96" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>241</v>
+      </c>
+      <c r="C97" t="s">
+        <v>550</v>
+      </c>
+      <c r="D97" t="s">
+        <v>647</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97" t="s">
+        <v>441</v>
+      </c>
+      <c r="G97" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" t="s">
+        <v>541</v>
+      </c>
+      <c r="D98" t="s">
+        <v>647</v>
+      </c>
+      <c r="E98">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>441</v>
+      </c>
+      <c r="G98" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>553</v>
+      </c>
+      <c r="D99" t="s">
+        <v>647</v>
+      </c>
+      <c r="E99">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>441</v>
+      </c>
+      <c r="G99" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>216</v>
+      </c>
+      <c r="C100" t="s">
+        <v>543</v>
+      </c>
+      <c r="D100" t="s">
+        <v>647</v>
+      </c>
+      <c r="E100">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>441</v>
+      </c>
+      <c r="G100" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" t="s">
+        <v>545</v>
+      </c>
+      <c r="D101" t="s">
+        <v>647</v>
+      </c>
+      <c r="E101">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>441</v>
+      </c>
+      <c r="G101" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>604</v>
+      </c>
+      <c r="C102" t="s">
+        <v>556</v>
+      </c>
+      <c r="D102" t="s">
+        <v>647</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>441</v>
+      </c>
+      <c r="G102" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
+        <v>246</v>
+      </c>
+      <c r="C103" t="s">
+        <v>541</v>
+      </c>
+      <c r="D103" t="s">
+        <v>673</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>441</v>
+      </c>
+      <c r="G103" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>12</v>
+      </c>
+      <c r="B104" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" t="s">
+        <v>552</v>
+      </c>
+      <c r="D104" t="s">
+        <v>673</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>441</v>
+      </c>
+      <c r="G104" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>175</v>
+      </c>
+      <c r="C105" t="s">
+        <v>554</v>
+      </c>
+      <c r="D105" t="s">
+        <v>673</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105" t="s">
+        <v>441</v>
+      </c>
+      <c r="G105" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>12</v>
+      </c>
+      <c r="B106" t="s">
+        <v>188</v>
+      </c>
+      <c r="C106" t="s">
+        <v>564</v>
+      </c>
+      <c r="D106" t="s">
+        <v>673</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106" t="s">
+        <v>441</v>
+      </c>
+      <c r="G106" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" t="s">
+        <v>555</v>
+      </c>
+      <c r="D107" t="s">
+        <v>673</v>
+      </c>
+      <c r="E107">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>441</v>
+      </c>
+      <c r="G107" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" t="s">
+        <v>549</v>
+      </c>
+      <c r="D108" t="s">
+        <v>673</v>
+      </c>
+      <c r="E108">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>441</v>
+      </c>
+      <c r="G108" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" t="s">
+        <v>561</v>
+      </c>
+      <c r="D109" t="s">
+        <v>673</v>
+      </c>
+      <c r="E109">
+        <v>7</v>
+      </c>
+      <c r="F109" t="s">
+        <v>441</v>
+      </c>
+      <c r="G109" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>12</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>547</v>
+      </c>
+      <c r="D110" t="s">
+        <v>673</v>
+      </c>
+      <c r="E110">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>441</v>
+      </c>
+      <c r="G110" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>12</v>
+      </c>
+      <c r="B111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" t="s">
+        <v>540</v>
+      </c>
+      <c r="D111" t="s">
+        <v>673</v>
+      </c>
+      <c r="E111">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>441</v>
+      </c>
+      <c r="G111" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" t="s">
+        <v>541</v>
+      </c>
+      <c r="D112" t="s">
+        <v>673</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
+        <v>441</v>
+      </c>
+      <c r="G112" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>691</v>
+      </c>
+      <c r="C113" t="s">
+        <v>568</v>
+      </c>
+      <c r="D113" t="s">
+        <v>649</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G113" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" t="s">
+        <v>546</v>
+      </c>
+      <c r="D114" t="s">
+        <v>649</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>441</v>
+      </c>
+      <c r="G114" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>109</v>
+      </c>
+      <c r="C115" t="s">
+        <v>555</v>
+      </c>
+      <c r="D115" t="s">
+        <v>649</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115" t="s">
+        <v>441</v>
+      </c>
+      <c r="G115" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" t="s">
+        <v>542</v>
+      </c>
+      <c r="D116" t="s">
+        <v>649</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116" t="s">
+        <v>441</v>
+      </c>
+      <c r="G116" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" t="s">
+        <v>561</v>
+      </c>
+      <c r="D117" t="s">
+        <v>649</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+      <c r="F117" t="s">
+        <v>441</v>
+      </c>
+      <c r="G117" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>41</v>
+      </c>
+      <c r="C118" t="s">
+        <v>540</v>
+      </c>
+      <c r="D118" t="s">
+        <v>650</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>441</v>
+      </c>
+      <c r="G118" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>15</v>
+      </c>
+      <c r="B119" t="s">
+        <v>606</v>
+      </c>
+      <c r="C119" t="s">
+        <v>541</v>
+      </c>
+      <c r="D119" t="s">
+        <v>650</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>441</v>
+      </c>
+      <c r="G119" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>15</v>
+      </c>
+      <c r="B120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" t="s">
+        <v>546</v>
+      </c>
+      <c r="D120" t="s">
+        <v>650</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120" t="s">
+        <v>441</v>
+      </c>
+      <c r="G120" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>15</v>
+      </c>
+      <c r="B121" t="s">
+        <v>582</v>
+      </c>
+      <c r="C121" t="s">
+        <v>557</v>
+      </c>
+      <c r="D121" t="s">
+        <v>650</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121" t="s">
+        <v>441</v>
+      </c>
+      <c r="G121" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>15</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" t="s">
+        <v>566</v>
+      </c>
+      <c r="D122" t="s">
+        <v>650</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122" t="s">
+        <v>441</v>
+      </c>
+      <c r="G122" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>97</v>
+      </c>
+      <c r="C123" t="s">
+        <v>558</v>
+      </c>
+      <c r="D123" t="s">
+        <v>650</v>
+      </c>
+      <c r="E123">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>441</v>
+      </c>
+      <c r="G123" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
+        <v>38</v>
+      </c>
+      <c r="C124" t="s">
+        <v>546</v>
+      </c>
+      <c r="D124" t="s">
+        <v>650</v>
+      </c>
+      <c r="E124">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>441</v>
+      </c>
+      <c r="G124" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>15</v>
+      </c>
+      <c r="B125" t="s">
+        <v>233</v>
+      </c>
+      <c r="C125" t="s">
+        <v>551</v>
+      </c>
+      <c r="D125" t="s">
+        <v>650</v>
+      </c>
+      <c r="E125">
+        <v>8</v>
+      </c>
+      <c r="F125" t="s">
+        <v>441</v>
+      </c>
+      <c r="G125" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>15</v>
+      </c>
+      <c r="B126" t="s">
+        <v>535</v>
+      </c>
+      <c r="C126" t="s">
+        <v>569</v>
+      </c>
+      <c r="D126" t="s">
+        <v>650</v>
+      </c>
+      <c r="E126">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>441</v>
+      </c>
+      <c r="G126" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>15</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>563</v>
+      </c>
+      <c r="D127" t="s">
+        <v>650</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s">
+        <v>441</v>
+      </c>
+      <c r="G127" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>16</v>
+      </c>
+      <c r="B128" t="s">
+        <v>227</v>
+      </c>
+      <c r="C128" t="s">
+        <v>542</v>
+      </c>
+      <c r="D128" t="s">
+        <v>651</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>441</v>
+      </c>
+      <c r="G128" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>16</v>
+      </c>
+      <c r="B129" t="s">
+        <v>112</v>
+      </c>
+      <c r="C129" t="s">
+        <v>555</v>
+      </c>
+      <c r="D129" t="s">
+        <v>651</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129" t="s">
+        <v>441</v>
+      </c>
+      <c r="G129" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
+        <v>156</v>
+      </c>
+      <c r="C130" t="s">
+        <v>567</v>
+      </c>
+      <c r="D130" t="s">
+        <v>651</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+      <c r="F130" t="s">
+        <v>441</v>
+      </c>
+      <c r="G130" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>16</v>
+      </c>
+      <c r="B131" t="s">
+        <v>171</v>
+      </c>
+      <c r="C131" t="s">
+        <v>551</v>
+      </c>
+      <c r="D131" t="s">
+        <v>651</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131" t="s">
+        <v>441</v>
+      </c>
+      <c r="G131" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>16</v>
+      </c>
+      <c r="B132" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" t="s">
+        <v>569</v>
+      </c>
+      <c r="D132" t="s">
+        <v>651</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+      <c r="F132" t="s">
+        <v>441</v>
+      </c>
+      <c r="G132" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>16</v>
+      </c>
+      <c r="B133" t="s">
+        <v>242</v>
+      </c>
+      <c r="C133" t="s">
+        <v>558</v>
+      </c>
+      <c r="D133" t="s">
+        <v>651</v>
+      </c>
+      <c r="E133">
+        <v>6</v>
+      </c>
+      <c r="F133" t="s">
+        <v>441</v>
+      </c>
+      <c r="G133" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>16</v>
+      </c>
+      <c r="B134" t="s">
+        <v>91</v>
+      </c>
+      <c r="C134" t="s">
+        <v>545</v>
+      </c>
+      <c r="D134" t="s">
+        <v>651</v>
+      </c>
+      <c r="E134">
+        <v>7</v>
+      </c>
+      <c r="F134" t="s">
+        <v>441</v>
+      </c>
+      <c r="G134" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>16</v>
+      </c>
+      <c r="B135" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135" t="s">
+        <v>560</v>
+      </c>
+      <c r="D135" t="s">
+        <v>651</v>
+      </c>
+      <c r="E135">
+        <v>8</v>
+      </c>
+      <c r="F135" t="s">
+        <v>441</v>
+      </c>
+      <c r="G135" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>16</v>
+      </c>
+      <c r="B136" t="s">
+        <v>49</v>
+      </c>
+      <c r="C136" t="s">
+        <v>540</v>
+      </c>
+      <c r="D136" t="s">
+        <v>651</v>
+      </c>
+      <c r="E136">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
+        <v>441</v>
+      </c>
+      <c r="G136" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>16</v>
+      </c>
+      <c r="B137" t="s">
+        <v>110</v>
+      </c>
+      <c r="C137" t="s">
+        <v>555</v>
+      </c>
+      <c r="D137" t="s">
+        <v>651</v>
+      </c>
+      <c r="E137">
+        <v>10</v>
+      </c>
+      <c r="F137" t="s">
+        <v>441</v>
+      </c>
+      <c r="G137" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>17</v>
+      </c>
+      <c r="B138" t="s">
+        <v>104</v>
+      </c>
+      <c r="C138" t="s">
+        <v>568</v>
+      </c>
+      <c r="D138" t="s">
+        <v>652</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>441</v>
+      </c>
+      <c r="G138" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>17</v>
+      </c>
+      <c r="B139" t="s">
+        <v>190</v>
+      </c>
+      <c r="C139" t="s">
+        <v>564</v>
+      </c>
+      <c r="D139" t="s">
+        <v>652</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139" t="s">
+        <v>441</v>
+      </c>
+      <c r="G139" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>17</v>
+      </c>
+      <c r="B140" t="s">
+        <v>170</v>
+      </c>
+      <c r="C140" t="s">
+        <v>540</v>
+      </c>
+      <c r="D140" t="s">
+        <v>652</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+      <c r="F140" t="s">
+        <v>441</v>
+      </c>
+      <c r="G140" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>17</v>
+      </c>
+      <c r="B141" t="s">
+        <v>186</v>
+      </c>
+      <c r="C141" t="s">
+        <v>564</v>
+      </c>
+      <c r="D141" t="s">
+        <v>652</v>
+      </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+      <c r="F141" t="s">
+        <v>441</v>
+      </c>
+      <c r="G141" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>17</v>
+      </c>
+      <c r="B142" t="s">
+        <v>180</v>
+      </c>
+      <c r="C142" t="s">
+        <v>554</v>
+      </c>
+      <c r="D142" t="s">
+        <v>652</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+      <c r="F142" t="s">
+        <v>441</v>
+      </c>
+      <c r="G142" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>17</v>
+      </c>
+      <c r="B143" t="s">
+        <v>192</v>
+      </c>
+      <c r="C143" t="s">
+        <v>564</v>
+      </c>
+      <c r="D143" t="s">
+        <v>652</v>
+      </c>
+      <c r="E143">
+        <v>6</v>
+      </c>
+      <c r="F143" t="s">
+        <v>441</v>
+      </c>
+      <c r="G143" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>17</v>
+      </c>
+      <c r="B144" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" t="s">
+        <v>546</v>
+      </c>
+      <c r="D144" t="s">
+        <v>652</v>
+      </c>
+      <c r="E144">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>441</v>
+      </c>
+      <c r="G144" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>17</v>
+      </c>
+      <c r="B145" t="s">
+        <v>200</v>
+      </c>
+      <c r="C145" t="s">
+        <v>559</v>
+      </c>
+      <c r="D145" t="s">
+        <v>652</v>
+      </c>
+      <c r="E145">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>441</v>
+      </c>
+      <c r="G145" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>17</v>
+      </c>
+      <c r="B146" t="s">
+        <v>581</v>
+      </c>
+      <c r="C146" t="s">
+        <v>566</v>
+      </c>
+      <c r="D146" t="s">
+        <v>652</v>
+      </c>
+      <c r="E146">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>441</v>
+      </c>
+      <c r="G146" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>17</v>
+      </c>
+      <c r="B147" t="s">
+        <v>129</v>
+      </c>
+      <c r="C147" t="s">
+        <v>549</v>
+      </c>
+      <c r="D147" t="s">
+        <v>652</v>
+      </c>
+      <c r="E147">
+        <v>10</v>
+      </c>
+      <c r="F147" t="s">
+        <v>441</v>
+      </c>
+      <c r="G147" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>18</v>
+      </c>
+      <c r="B148" t="s">
+        <v>243</v>
+      </c>
+      <c r="C148" t="s">
+        <v>570</v>
+      </c>
+      <c r="D148" t="s">
+        <v>674</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" t="s">
+        <v>441</v>
+      </c>
+      <c r="G148" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>18</v>
+      </c>
+      <c r="B149" t="s">
+        <v>113</v>
+      </c>
+      <c r="C149" t="s">
+        <v>569</v>
+      </c>
+      <c r="D149" t="s">
+        <v>674</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149" t="s">
+        <v>441</v>
+      </c>
+      <c r="G149" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>18</v>
+      </c>
+      <c r="B150" t="s">
+        <v>168</v>
+      </c>
+      <c r="C150" t="s">
+        <v>567</v>
+      </c>
+      <c r="D150" t="s">
+        <v>674</v>
+      </c>
+      <c r="E150">
+        <v>3</v>
+      </c>
+      <c r="F150" t="s">
+        <v>441</v>
+      </c>
+      <c r="G150" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>18</v>
+      </c>
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" t="s">
+        <v>561</v>
+      </c>
+      <c r="D151" t="s">
+        <v>674</v>
+      </c>
+      <c r="E151">
+        <v>4</v>
+      </c>
+      <c r="F151" t="s">
+        <v>441</v>
+      </c>
+      <c r="G151" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>18</v>
+      </c>
+      <c r="B152" t="s">
+        <v>84</v>
+      </c>
+      <c r="C152" t="s">
+        <v>556</v>
+      </c>
+      <c r="D152" t="s">
+        <v>674</v>
+      </c>
+      <c r="E152">
+        <v>5</v>
+      </c>
+      <c r="F152" t="s">
+        <v>441</v>
+      </c>
+      <c r="G152" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>19</v>
+      </c>
+      <c r="B153" t="s">
+        <v>42</v>
+      </c>
+      <c r="C153" t="s">
+        <v>540</v>
+      </c>
+      <c r="D153" t="s">
+        <v>653</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>441</v>
+      </c>
+      <c r="G153" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>19</v>
+      </c>
+      <c r="B154" t="s">
+        <v>63</v>
+      </c>
+      <c r="C154" t="s">
+        <v>548</v>
+      </c>
+      <c r="D154" t="s">
+        <v>653</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154" t="s">
+        <v>441</v>
+      </c>
+      <c r="G154" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>19</v>
+      </c>
+      <c r="B155" t="s">
+        <v>178</v>
+      </c>
+      <c r="C155" t="s">
+        <v>554</v>
+      </c>
+      <c r="D155" t="s">
+        <v>653</v>
+      </c>
+      <c r="E155">
+        <v>3</v>
+      </c>
+      <c r="F155" t="s">
+        <v>441</v>
+      </c>
+      <c r="G155" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>19</v>
+      </c>
+      <c r="B156" t="s">
+        <v>198</v>
+      </c>
+      <c r="C156" t="s">
+        <v>559</v>
+      </c>
+      <c r="D156" t="s">
+        <v>653</v>
+      </c>
+      <c r="E156">
+        <v>4</v>
+      </c>
+      <c r="F156" t="s">
+        <v>441</v>
+      </c>
+      <c r="G156" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>19</v>
+      </c>
+      <c r="B157" t="s">
+        <v>220</v>
+      </c>
+      <c r="C157" t="s">
+        <v>544</v>
+      </c>
+      <c r="D157" t="s">
+        <v>653</v>
+      </c>
+      <c r="E157">
+        <v>5</v>
+      </c>
+      <c r="F157" t="s">
+        <v>441</v>
+      </c>
+      <c r="G157" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>19</v>
+      </c>
+      <c r="B158" t="s">
+        <v>56</v>
+      </c>
+      <c r="C158" t="s">
+        <v>565</v>
+      </c>
+      <c r="D158" t="s">
+        <v>653</v>
+      </c>
+      <c r="E158">
+        <v>6</v>
+      </c>
+      <c r="F158" t="s">
+        <v>441</v>
+      </c>
+      <c r="G158" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>19</v>
+      </c>
+      <c r="B159" t="s">
+        <v>692</v>
+      </c>
+      <c r="C159" t="s">
+        <v>569</v>
+      </c>
+      <c r="D159" t="s">
+        <v>653</v>
+      </c>
+      <c r="E159">
+        <v>7</v>
+      </c>
+      <c r="F159" t="s">
+        <v>441</v>
+      </c>
+      <c r="G159" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>19</v>
+      </c>
+      <c r="B160" t="s">
+        <v>59</v>
+      </c>
+      <c r="C160" t="s">
+        <v>548</v>
+      </c>
+      <c r="D160" t="s">
+        <v>653</v>
+      </c>
+      <c r="E160">
+        <v>8</v>
+      </c>
+      <c r="F160" t="s">
+        <v>441</v>
+      </c>
+      <c r="G160" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>19</v>
+      </c>
+      <c r="B161" t="s">
+        <v>228</v>
+      </c>
+      <c r="C161" t="s">
+        <v>542</v>
+      </c>
+      <c r="D161" t="s">
+        <v>653</v>
+      </c>
+      <c r="E161">
+        <v>9</v>
+      </c>
+      <c r="F161" t="s">
+        <v>441</v>
+      </c>
+      <c r="G161" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>19</v>
+      </c>
+      <c r="B162" t="s">
+        <v>583</v>
+      </c>
+      <c r="C162" t="s">
+        <v>552</v>
+      </c>
+      <c r="D162" t="s">
+        <v>653</v>
+      </c>
+      <c r="E162">
+        <v>10</v>
+      </c>
+      <c r="F162" t="s">
+        <v>441</v>
+      </c>
+      <c r="G162" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>20</v>
+      </c>
+      <c r="B163" t="s">
+        <v>203</v>
+      </c>
+      <c r="C163" t="s">
+        <v>559</v>
+      </c>
+      <c r="D163" t="s">
+        <v>654</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>441</v>
+      </c>
+      <c r="G163" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>20</v>
+      </c>
+      <c r="B164" t="s">
+        <v>124</v>
+      </c>
+      <c r="C164" t="s">
+        <v>550</v>
+      </c>
+      <c r="D164" t="s">
+        <v>654</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164" t="s">
+        <v>441</v>
+      </c>
+      <c r="G164" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>20</v>
+      </c>
+      <c r="B165" t="s">
+        <v>584</v>
+      </c>
+      <c r="C165" t="s">
+        <v>559</v>
+      </c>
+      <c r="D165" t="s">
+        <v>654</v>
+      </c>
+      <c r="E165">
+        <v>3</v>
+      </c>
+      <c r="F165" t="s">
+        <v>441</v>
+      </c>
+      <c r="G165" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>20</v>
+      </c>
+      <c r="B166" t="s">
+        <v>139</v>
+      </c>
+      <c r="C166" t="s">
+        <v>557</v>
+      </c>
+      <c r="D166" t="s">
+        <v>654</v>
+      </c>
+      <c r="E166">
+        <v>4</v>
+      </c>
+      <c r="F166" t="s">
+        <v>441</v>
+      </c>
+      <c r="G166" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>20</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>553</v>
+      </c>
+      <c r="D167" t="s">
+        <v>654</v>
+      </c>
+      <c r="E167">
+        <v>5</v>
+      </c>
+      <c r="F167" t="s">
+        <v>441</v>
+      </c>
+      <c r="G167" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>20</v>
+      </c>
+      <c r="B168" t="s">
+        <v>123</v>
+      </c>
+      <c r="C168" t="s">
+        <v>550</v>
+      </c>
+      <c r="D168" t="s">
+        <v>654</v>
+      </c>
+      <c r="E168">
+        <v>6</v>
+      </c>
+      <c r="F168" t="s">
+        <v>441</v>
+      </c>
+      <c r="G168" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>20</v>
+      </c>
+      <c r="B169" t="s">
+        <v>119</v>
+      </c>
+      <c r="C169" t="s">
+        <v>549</v>
+      </c>
+      <c r="D169" t="s">
+        <v>654</v>
+      </c>
+      <c r="E169">
+        <v>7</v>
+      </c>
+      <c r="F169" t="s">
+        <v>441</v>
+      </c>
+      <c r="G169" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>20</v>
+      </c>
+      <c r="B170" t="s">
+        <v>116</v>
+      </c>
+      <c r="C170" t="s">
+        <v>555</v>
+      </c>
+      <c r="D170" t="s">
+        <v>654</v>
+      </c>
+      <c r="E170">
+        <v>8</v>
+      </c>
+      <c r="F170" t="s">
+        <v>441</v>
+      </c>
+      <c r="G170" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>20</v>
+      </c>
+      <c r="B171" t="s">
+        <v>693</v>
+      </c>
+      <c r="C171">
+        <v>1736</v>
+      </c>
+      <c r="D171" t="s">
+        <v>654</v>
+      </c>
+      <c r="E171">
+        <v>9</v>
+      </c>
+      <c r="F171" t="s">
+        <v>441</v>
+      </c>
+      <c r="G171" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>20</v>
+      </c>
+      <c r="B172" t="s">
+        <v>174</v>
+      </c>
+      <c r="C172" t="s">
+        <v>554</v>
+      </c>
+      <c r="D172" t="s">
+        <v>654</v>
+      </c>
+      <c r="E172">
+        <v>10</v>
+      </c>
+      <c r="F172" t="s">
+        <v>441</v>
+      </c>
+      <c r="G172" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>21</v>
+      </c>
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" t="s">
+        <v>563</v>
+      </c>
+      <c r="D173" t="s">
+        <v>655</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" t="s">
+        <v>441</v>
+      </c>
+      <c r="G173" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>21</v>
+      </c>
+      <c r="B174" t="s">
+        <v>245</v>
+      </c>
+      <c r="C174" t="s">
+        <v>560</v>
+      </c>
+      <c r="D174" t="s">
+        <v>655</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174" t="s">
+        <v>441</v>
+      </c>
+      <c r="G174" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>21</v>
+      </c>
+      <c r="B175" t="s">
+        <v>44</v>
+      </c>
+      <c r="C175" t="s">
+        <v>540</v>
+      </c>
+      <c r="D175" t="s">
+        <v>655</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="F175" t="s">
+        <v>441</v>
+      </c>
+      <c r="G175" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>21</v>
+      </c>
+      <c r="B176" t="s">
+        <v>199</v>
+      </c>
+      <c r="C176" t="s">
+        <v>559</v>
+      </c>
+      <c r="D176" t="s">
+        <v>655</v>
+      </c>
+      <c r="E176">
+        <v>4</v>
+      </c>
+      <c r="F176" t="s">
+        <v>441</v>
+      </c>
+      <c r="G176" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>21</v>
+      </c>
+      <c r="B177" t="s">
+        <v>695</v>
+      </c>
+      <c r="C177" t="s">
+        <v>556</v>
+      </c>
+      <c r="D177" t="s">
+        <v>655</v>
+      </c>
+      <c r="E177">
+        <v>5</v>
+      </c>
+      <c r="F177" t="s">
+        <v>441</v>
+      </c>
+      <c r="G177" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>22</v>
+      </c>
+      <c r="B178" t="s">
+        <v>90</v>
+      </c>
+      <c r="C178" t="s">
+        <v>545</v>
+      </c>
+      <c r="D178" t="s">
+        <v>656</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>441</v>
+      </c>
+      <c r="G178" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>22</v>
+      </c>
+      <c r="B179" t="s">
+        <v>70</v>
+      </c>
+      <c r="C179" t="s">
+        <v>556</v>
+      </c>
+      <c r="D179" t="s">
+        <v>656</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179" t="s">
+        <v>441</v>
+      </c>
+      <c r="G179" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>22</v>
+      </c>
+      <c r="B180" t="s">
+        <v>145</v>
+      </c>
+      <c r="C180" t="s">
+        <v>560</v>
+      </c>
+      <c r="D180" t="s">
+        <v>656</v>
+      </c>
+      <c r="E180">
+        <v>3</v>
+      </c>
+      <c r="F180" t="s">
+        <v>441</v>
+      </c>
+      <c r="G180" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>22</v>
+      </c>
+      <c r="B181" t="s">
+        <v>214</v>
+      </c>
+      <c r="C181" t="s">
+        <v>543</v>
+      </c>
+      <c r="D181" t="s">
+        <v>656</v>
+      </c>
+      <c r="E181">
+        <v>4</v>
+      </c>
+      <c r="F181" t="s">
+        <v>441</v>
+      </c>
+      <c r="G181" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>22</v>
+      </c>
+      <c r="B182" t="s">
+        <v>208</v>
+      </c>
+      <c r="C182" t="s">
+        <v>544</v>
+      </c>
+      <c r="D182" t="s">
+        <v>656</v>
+      </c>
+      <c r="E182">
+        <v>5</v>
+      </c>
+      <c r="F182" t="s">
+        <v>441</v>
+      </c>
+      <c r="G182" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>22</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>553</v>
+      </c>
+      <c r="D183" t="s">
+        <v>656</v>
+      </c>
+      <c r="E183">
+        <v>6</v>
+      </c>
+      <c r="F183" t="s">
+        <v>441</v>
+      </c>
+      <c r="G183" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>22</v>
+      </c>
+      <c r="B184" t="s">
+        <v>144</v>
+      </c>
+      <c r="C184" t="s">
+        <v>560</v>
+      </c>
+      <c r="D184" t="s">
+        <v>656</v>
+      </c>
+      <c r="E184">
+        <v>7</v>
+      </c>
+      <c r="F184" t="s">
+        <v>441</v>
+      </c>
+      <c r="G184" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>23</v>
+      </c>
+      <c r="B185" t="s">
+        <v>50</v>
+      </c>
+      <c r="C185" t="s">
+        <v>540</v>
+      </c>
+      <c r="D185" t="s">
+        <v>675</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185" t="s">
+        <v>442</v>
+      </c>
+      <c r="G185" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>23</v>
+      </c>
+      <c r="B186" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" t="s">
+        <v>570</v>
+      </c>
+      <c r="D186" t="s">
+        <v>675</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+      <c r="F186" t="s">
+        <v>442</v>
+      </c>
+      <c r="G186" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>23</v>
+      </c>
+      <c r="B187" t="s">
+        <v>166</v>
+      </c>
+      <c r="C187" t="s">
+        <v>567</v>
+      </c>
+      <c r="D187" t="s">
+        <v>675</v>
+      </c>
+      <c r="E187">
+        <v>3</v>
+      </c>
+      <c r="F187" t="s">
+        <v>442</v>
+      </c>
+      <c r="G187" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>23</v>
+      </c>
+      <c r="B188" t="s">
+        <v>121</v>
+      </c>
+      <c r="C188" t="s">
+        <v>555</v>
+      </c>
+      <c r="D188" t="s">
+        <v>675</v>
+      </c>
+      <c r="E188">
+        <v>4</v>
+      </c>
+      <c r="F188" t="s">
+        <v>442</v>
+      </c>
+      <c r="G188" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>23</v>
+      </c>
+      <c r="B189" t="s">
+        <v>27</v>
+      </c>
+      <c r="C189" t="s">
+        <v>558</v>
+      </c>
+      <c r="D189" t="s">
+        <v>675</v>
+      </c>
+      <c r="E189">
+        <v>5</v>
+      </c>
+      <c r="F189" t="s">
+        <v>442</v>
+      </c>
+      <c r="G189" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>24</v>
+      </c>
+      <c r="B190" t="s">
+        <v>149</v>
+      </c>
+      <c r="C190" t="s">
+        <v>560</v>
+      </c>
+      <c r="D190" t="s">
+        <v>675</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190" t="s">
+        <v>442</v>
+      </c>
+      <c r="G190" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>24</v>
+      </c>
+      <c r="B191" t="s">
+        <v>95</v>
+      </c>
+      <c r="C191" t="s">
+        <v>545</v>
+      </c>
+      <c r="D191" t="s">
+        <v>657</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="F191" t="s">
+        <v>442</v>
+      </c>
+      <c r="G191" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>24</v>
+      </c>
+      <c r="B192" t="s">
+        <v>161</v>
+      </c>
+      <c r="C192" t="s">
+        <v>561</v>
+      </c>
+      <c r="D192" t="s">
+        <v>657</v>
+      </c>
+      <c r="E192">
+        <v>3</v>
+      </c>
+      <c r="F192" t="s">
+        <v>442</v>
+      </c>
+      <c r="G192" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>24</v>
+      </c>
+      <c r="B193" t="s">
+        <v>217</v>
+      </c>
+      <c r="C193" t="s">
+        <v>543</v>
+      </c>
+      <c r="D193" t="s">
+        <v>657</v>
+      </c>
+      <c r="E193">
+        <v>4</v>
+      </c>
+      <c r="F193" t="s">
+        <v>442</v>
+      </c>
+      <c r="G193" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>24</v>
+      </c>
+      <c r="B194" t="s">
+        <v>235</v>
+      </c>
+      <c r="C194" t="s">
+        <v>552</v>
+      </c>
+      <c r="D194" t="s">
+        <v>657</v>
+      </c>
+      <c r="E194">
+        <v>5</v>
+      </c>
+      <c r="F194" t="s">
+        <v>442</v>
+      </c>
+      <c r="G194" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>24</v>
+      </c>
+      <c r="B195" t="s">
+        <v>39</v>
+      </c>
+      <c r="C195" t="s">
+        <v>546</v>
+      </c>
+      <c r="D195" t="s">
+        <v>657</v>
+      </c>
+      <c r="E195">
+        <v>6</v>
+      </c>
+      <c r="F195" t="s">
+        <v>442</v>
+      </c>
+      <c r="G195" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>24</v>
+      </c>
+      <c r="B196" t="s">
+        <v>60</v>
+      </c>
+      <c r="C196" t="s">
+        <v>548</v>
+      </c>
+      <c r="D196" t="s">
+        <v>657</v>
+      </c>
+      <c r="E196">
+        <v>7</v>
+      </c>
+      <c r="F196" t="s">
+        <v>442</v>
+      </c>
+      <c r="G196" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>24</v>
+      </c>
+      <c r="B197" t="s">
+        <v>69</v>
+      </c>
+      <c r="C197" t="s">
+        <v>556</v>
+      </c>
+      <c r="D197" t="s">
+        <v>657</v>
+      </c>
+      <c r="E197">
+        <v>8</v>
+      </c>
+      <c r="F197" t="s">
+        <v>442</v>
+      </c>
+      <c r="G197" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>24</v>
+      </c>
+      <c r="B198" t="s">
+        <v>94</v>
+      </c>
+      <c r="C198" t="s">
+        <v>545</v>
+      </c>
+      <c r="D198" t="s">
+        <v>657</v>
+      </c>
+      <c r="E198">
+        <v>9</v>
+      </c>
+      <c r="F198" t="s">
+        <v>442</v>
+      </c>
+      <c r="G198" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>24</v>
+      </c>
+      <c r="B199" t="s">
+        <v>182</v>
+      </c>
+      <c r="C199" t="s">
+        <v>554</v>
+      </c>
+      <c r="D199" t="s">
+        <v>657</v>
+      </c>
+      <c r="E199">
+        <v>10</v>
+      </c>
+      <c r="F199" t="s">
+        <v>442</v>
+      </c>
+      <c r="G199" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>25</v>
+      </c>
+      <c r="B200" t="s">
+        <v>52</v>
+      </c>
+      <c r="C200" t="s">
+        <v>540</v>
+      </c>
+      <c r="D200" t="s">
+        <v>676</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200" t="s">
+        <v>442</v>
+      </c>
+      <c r="G200" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>25</v>
+      </c>
+      <c r="B201" t="s">
+        <v>73</v>
+      </c>
+      <c r="C201" t="s">
+        <v>541</v>
+      </c>
+      <c r="D201" t="s">
+        <v>676</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201" t="s">
+        <v>442</v>
+      </c>
+      <c r="G201" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>25</v>
+      </c>
+      <c r="B202" t="s">
+        <v>47</v>
+      </c>
+      <c r="C202" t="s">
+        <v>540</v>
+      </c>
+      <c r="D202" t="s">
+        <v>676</v>
+      </c>
+      <c r="E202">
+        <v>3</v>
+      </c>
+      <c r="F202" t="s">
+        <v>442</v>
+      </c>
+      <c r="G202" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>25</v>
+      </c>
+      <c r="B203" t="s">
+        <v>128</v>
+      </c>
+      <c r="C203" t="s">
+        <v>549</v>
+      </c>
+      <c r="D203" t="s">
+        <v>676</v>
+      </c>
+      <c r="E203">
+        <v>4</v>
+      </c>
+      <c r="F203" t="s">
+        <v>442</v>
+      </c>
+      <c r="G203" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>25</v>
+      </c>
+      <c r="B204" t="s">
+        <v>165</v>
+      </c>
+      <c r="C204" t="s">
+        <v>561</v>
+      </c>
+      <c r="D204" t="s">
+        <v>676</v>
+      </c>
+      <c r="E204">
+        <v>5</v>
+      </c>
+      <c r="F204" t="s">
+        <v>442</v>
+      </c>
+      <c r="G204" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>25</v>
+      </c>
+      <c r="B205" t="s">
+        <v>107</v>
+      </c>
+      <c r="C205" t="s">
+        <v>568</v>
+      </c>
+      <c r="D205" t="s">
+        <v>676</v>
+      </c>
+      <c r="E205">
+        <v>6</v>
+      </c>
+      <c r="F205" t="s">
+        <v>442</v>
+      </c>
+      <c r="G205" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>25</v>
+      </c>
+      <c r="B206" t="s">
+        <v>195</v>
+      </c>
+      <c r="C206" t="s">
+        <v>559</v>
+      </c>
+      <c r="D206" t="s">
+        <v>676</v>
+      </c>
+      <c r="E206">
+        <v>7</v>
+      </c>
+      <c r="F206" t="s">
+        <v>442</v>
+      </c>
+      <c r="G206" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>25</v>
+      </c>
+      <c r="B207" t="s">
+        <v>222</v>
+      </c>
+      <c r="C207" t="s">
+        <v>551</v>
+      </c>
+      <c r="D207" t="s">
+        <v>676</v>
+      </c>
+      <c r="E207">
+        <v>8</v>
+      </c>
+      <c r="F207" t="s">
+        <v>442</v>
+      </c>
+      <c r="G207" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>25</v>
+      </c>
+      <c r="B208" t="s">
+        <v>154</v>
+      </c>
+      <c r="C208" t="s">
+        <v>567</v>
+      </c>
+      <c r="D208" t="s">
+        <v>676</v>
+      </c>
+      <c r="E208">
+        <v>9</v>
+      </c>
+      <c r="F208" t="s">
+        <v>442</v>
+      </c>
+      <c r="G208" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>25</v>
+      </c>
+      <c r="B209" t="s">
+        <v>125</v>
+      </c>
+      <c r="C209" t="s">
+        <v>550</v>
+      </c>
+      <c r="D209" t="s">
+        <v>676</v>
+      </c>
+      <c r="E209">
+        <v>10</v>
+      </c>
+      <c r="F209" t="s">
+        <v>442</v>
+      </c>
+      <c r="G209" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>26</v>
+      </c>
+      <c r="B210" t="s">
+        <v>36</v>
+      </c>
+      <c r="C210" t="s">
+        <v>546</v>
+      </c>
+      <c r="D210" t="s">
+        <v>658</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210" t="s">
+        <v>442</v>
+      </c>
+      <c r="G210" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>26</v>
+      </c>
+      <c r="B211" t="s">
+        <v>96</v>
+      </c>
+      <c r="C211" t="s">
+        <v>558</v>
+      </c>
+      <c r="D211" t="s">
+        <v>658</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211" t="s">
+        <v>442</v>
+      </c>
+      <c r="G211" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>26</v>
+      </c>
+      <c r="B212" t="s">
+        <v>26</v>
+      </c>
+      <c r="C212" t="s">
+        <v>558</v>
+      </c>
+      <c r="D212" t="s">
+        <v>658</v>
+      </c>
+      <c r="E212">
+        <v>3</v>
+      </c>
+      <c r="F212" t="s">
+        <v>442</v>
+      </c>
+      <c r="G212" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>26</v>
+      </c>
+      <c r="B213" t="s">
+        <v>538</v>
+      </c>
+      <c r="C213" t="s">
+        <v>551</v>
+      </c>
+      <c r="D213" t="s">
+        <v>658</v>
+      </c>
+      <c r="E213">
+        <v>4</v>
+      </c>
+      <c r="F213" t="s">
+        <v>442</v>
+      </c>
+      <c r="G213" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>26</v>
+      </c>
+      <c r="B214" t="s">
+        <v>232</v>
+      </c>
+      <c r="C214" t="s">
+        <v>557</v>
+      </c>
+      <c r="D214" t="s">
+        <v>658</v>
+      </c>
+      <c r="E214">
+        <v>5</v>
+      </c>
+      <c r="F214" t="s">
+        <v>442</v>
+      </c>
+      <c r="G214" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>27</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" t="s">
+        <v>570</v>
+      </c>
+      <c r="D215" t="s">
+        <v>677</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215" t="s">
+        <v>442</v>
+      </c>
+      <c r="G215" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>27</v>
+      </c>
+      <c r="B216" t="s">
+        <v>610</v>
+      </c>
+      <c r="C216" t="s">
+        <v>555</v>
+      </c>
+      <c r="D216" t="s">
+        <v>677</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+      <c r="F216" t="s">
+        <v>442</v>
+      </c>
+      <c r="G216" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>27</v>
+      </c>
+      <c r="B217" t="s">
+        <v>160</v>
+      </c>
+      <c r="C217" t="s">
+        <v>561</v>
+      </c>
+      <c r="D217" t="s">
+        <v>677</v>
+      </c>
+      <c r="E217">
+        <v>3</v>
+      </c>
+      <c r="F217" t="s">
+        <v>442</v>
+      </c>
+      <c r="G217" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>27</v>
+      </c>
+      <c r="B218" t="s">
+        <v>608</v>
+      </c>
+      <c r="C218" t="s">
+        <v>561</v>
+      </c>
+      <c r="D218" t="s">
+        <v>677</v>
+      </c>
+      <c r="E218">
+        <v>4</v>
+      </c>
+      <c r="F218" t="s">
+        <v>442</v>
+      </c>
+      <c r="G218" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>27</v>
+      </c>
+      <c r="B219" t="s">
+        <v>537</v>
+      </c>
+      <c r="C219" t="s">
+        <v>555</v>
+      </c>
+      <c r="D219" t="s">
+        <v>677</v>
+      </c>
+      <c r="E219">
+        <v>5</v>
+      </c>
+      <c r="F219" t="s">
+        <v>442</v>
+      </c>
+      <c r="G219" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>28</v>
+      </c>
+      <c r="B220" t="s">
+        <v>134</v>
+      </c>
+      <c r="C220" t="s">
+        <v>549</v>
+      </c>
+      <c r="D220" t="s">
+        <v>659</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220" t="s">
+        <v>442</v>
+      </c>
+      <c r="G220" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>28</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" t="s">
+        <v>547</v>
+      </c>
+      <c r="D221" t="s">
+        <v>659</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+      <c r="F221" t="s">
+        <v>442</v>
+      </c>
+      <c r="G221" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>28</v>
+      </c>
+      <c r="B222" t="s">
+        <v>221</v>
+      </c>
+      <c r="C222" t="s">
+        <v>544</v>
+      </c>
+      <c r="D222" t="s">
+        <v>659</v>
+      </c>
+      <c r="E222">
+        <v>3</v>
+      </c>
+      <c r="F222" t="s">
+        <v>442</v>
+      </c>
+      <c r="G222" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>28</v>
+      </c>
+      <c r="B223" t="s">
+        <v>62</v>
+      </c>
+      <c r="C223" t="s">
+        <v>548</v>
+      </c>
+      <c r="D223" t="s">
+        <v>659</v>
+      </c>
+      <c r="E223">
+        <v>4</v>
+      </c>
+      <c r="F223" t="s">
+        <v>442</v>
+      </c>
+      <c r="G223" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>28</v>
+      </c>
+      <c r="B224" t="s">
+        <v>206</v>
+      </c>
+      <c r="C224" t="s">
+        <v>544</v>
+      </c>
+      <c r="D224" t="s">
+        <v>659</v>
+      </c>
+      <c r="E224">
+        <v>5</v>
+      </c>
+      <c r="F224" t="s">
+        <v>442</v>
+      </c>
+      <c r="G224" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>28</v>
+      </c>
+      <c r="B225" t="s">
+        <v>122</v>
+      </c>
+      <c r="C225" t="s">
+        <v>550</v>
+      </c>
+      <c r="D225" t="s">
+        <v>659</v>
+      </c>
+      <c r="E225">
+        <v>6</v>
+      </c>
+      <c r="F225" t="s">
+        <v>442</v>
+      </c>
+      <c r="G225" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>28</v>
+      </c>
+      <c r="B226" t="s">
+        <v>79</v>
+      </c>
+      <c r="C226" t="s">
+        <v>541</v>
+      </c>
+      <c r="D226" t="s">
+        <v>659</v>
+      </c>
+      <c r="E226">
+        <v>7</v>
+      </c>
+      <c r="F226" t="s">
+        <v>442</v>
+      </c>
+      <c r="G226" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>28</v>
+      </c>
+      <c r="B227" t="s">
+        <v>102</v>
+      </c>
+      <c r="C227" t="s">
+        <v>552</v>
+      </c>
+      <c r="D227" t="s">
+        <v>659</v>
+      </c>
+      <c r="E227">
+        <v>8</v>
+      </c>
+      <c r="F227" t="s">
+        <v>442</v>
+      </c>
+      <c r="G227" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>28</v>
+      </c>
+      <c r="B228" t="s">
+        <v>77</v>
+      </c>
+      <c r="C228" t="s">
+        <v>541</v>
+      </c>
+      <c r="D228" t="s">
+        <v>659</v>
+      </c>
+      <c r="E228">
+        <v>9</v>
+      </c>
+      <c r="F228" t="s">
+        <v>442</v>
+      </c>
+      <c r="G228" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>28</v>
+      </c>
+      <c r="B229" t="s">
+        <v>607</v>
+      </c>
+      <c r="C229" t="s">
+        <v>566</v>
+      </c>
+      <c r="D229" t="s">
+        <v>659</v>
+      </c>
+      <c r="E229">
+        <v>10</v>
+      </c>
+      <c r="F229" t="s">
+        <v>442</v>
+      </c>
+      <c r="G229" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>29</v>
+      </c>
+      <c r="B230" t="s">
+        <v>536</v>
+      </c>
+      <c r="C230" t="s">
+        <v>550</v>
+      </c>
+      <c r="D230" t="s">
+        <v>678</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230" t="s">
+        <v>442</v>
+      </c>
+      <c r="G230" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>29</v>
+      </c>
+      <c r="B231" t="s">
+        <v>74</v>
+      </c>
+      <c r="C231" t="s">
+        <v>541</v>
+      </c>
+      <c r="D231" t="s">
+        <v>678</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231" t="s">
+        <v>442</v>
+      </c>
+      <c r="G231" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>29</v>
+      </c>
+      <c r="B232" t="s">
+        <v>138</v>
+      </c>
+      <c r="C232" t="s">
+        <v>549</v>
+      </c>
+      <c r="D232" t="s">
+        <v>678</v>
+      </c>
+      <c r="E232">
+        <v>3</v>
+      </c>
+      <c r="F232" t="s">
+        <v>442</v>
+      </c>
+      <c r="G232" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>29</v>
+      </c>
+      <c r="B233" t="s">
+        <v>48</v>
+      </c>
+      <c r="C233" t="s">
+        <v>540</v>
+      </c>
+      <c r="D233" t="s">
+        <v>678</v>
+      </c>
+      <c r="E233">
+        <v>4</v>
+      </c>
+      <c r="F233" t="s">
+        <v>442</v>
+      </c>
+      <c r="G233" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>29</v>
+      </c>
+      <c r="B234" t="s">
+        <v>57</v>
+      </c>
+      <c r="C234" t="s">
+        <v>548</v>
+      </c>
+      <c r="D234" t="s">
+        <v>678</v>
+      </c>
+      <c r="E234">
+        <v>5</v>
+      </c>
+      <c r="F234" t="s">
+        <v>442</v>
+      </c>
+      <c r="G234" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>29</v>
+      </c>
+      <c r="B235" t="s">
+        <v>146</v>
+      </c>
+      <c r="C235" t="s">
+        <v>560</v>
+      </c>
+      <c r="D235" t="s">
+        <v>678</v>
+      </c>
+      <c r="E235">
+        <v>6</v>
+      </c>
+      <c r="F235" t="s">
+        <v>442</v>
+      </c>
+      <c r="G235" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>29</v>
+      </c>
+      <c r="B236" t="s">
+        <v>196</v>
+      </c>
+      <c r="C236" t="s">
+        <v>559</v>
+      </c>
+      <c r="D236" t="s">
+        <v>678</v>
+      </c>
+      <c r="E236">
+        <v>7</v>
+      </c>
+      <c r="F236" t="s">
+        <v>442</v>
+      </c>
+      <c r="G236" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>29</v>
+      </c>
+      <c r="B237" t="s">
+        <v>158</v>
+      </c>
+      <c r="C237" t="s">
+        <v>542</v>
+      </c>
+      <c r="D237" t="s">
+        <v>678</v>
+      </c>
+      <c r="E237">
+        <v>8</v>
+      </c>
+      <c r="F237" t="s">
+        <v>442</v>
+      </c>
+      <c r="G237" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>29</v>
+      </c>
+      <c r="B238" t="s">
+        <v>218</v>
+      </c>
+      <c r="C238" t="s">
+        <v>544</v>
+      </c>
+      <c r="D238" t="s">
+        <v>678</v>
+      </c>
+      <c r="E238">
+        <v>9</v>
+      </c>
+      <c r="F238" t="s">
+        <v>442</v>
+      </c>
+      <c r="G238" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>29</v>
+      </c>
+      <c r="B239" t="s">
+        <v>183</v>
+      </c>
+      <c r="C239" t="s">
+        <v>554</v>
+      </c>
+      <c r="D239" t="s">
+        <v>678</v>
+      </c>
+      <c r="E239">
+        <v>10</v>
+      </c>
+      <c r="F239" t="s">
+        <v>442</v>
+      </c>
+      <c r="G239" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>30</v>
+      </c>
+      <c r="B240" t="s">
+        <v>71</v>
+      </c>
+      <c r="C240" t="s">
+        <v>556</v>
+      </c>
+      <c r="D240" t="s">
+        <v>679</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240" t="s">
+        <v>442</v>
+      </c>
+      <c r="G240" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>30</v>
+      </c>
+      <c r="B241" t="s">
+        <v>189</v>
+      </c>
+      <c r="C241" t="s">
+        <v>564</v>
+      </c>
+      <c r="D241" t="s">
+        <v>679</v>
+      </c>
+      <c r="E241">
+        <v>2</v>
+      </c>
+      <c r="F241" t="s">
+        <v>442</v>
+      </c>
+      <c r="G241" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>30</v>
+      </c>
+      <c r="B242" t="s">
+        <v>92</v>
+      </c>
+      <c r="C242" t="s">
+        <v>545</v>
+      </c>
+      <c r="D242" t="s">
+        <v>679</v>
+      </c>
+      <c r="E242">
+        <v>3</v>
+      </c>
+      <c r="F242" t="s">
+        <v>442</v>
+      </c>
+      <c r="G242" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>30</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>547</v>
+      </c>
+      <c r="D243" t="s">
+        <v>679</v>
+      </c>
+      <c r="E243">
+        <v>4</v>
+      </c>
+      <c r="F243" t="s">
+        <v>442</v>
+      </c>
+      <c r="G243" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>30</v>
+      </c>
+      <c r="B244" t="s">
+        <v>187</v>
+      </c>
+      <c r="C244" t="s">
+        <v>564</v>
+      </c>
+      <c r="D244" t="s">
+        <v>679</v>
+      </c>
+      <c r="E244">
+        <v>5</v>
+      </c>
+      <c r="F244" t="s">
+        <v>442</v>
+      </c>
+      <c r="G244" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>30</v>
+      </c>
+      <c r="B245" t="s">
+        <v>72</v>
+      </c>
+      <c r="C245" t="s">
+        <v>556</v>
+      </c>
+      <c r="D245" t="s">
+        <v>679</v>
+      </c>
+      <c r="E245">
+        <v>6</v>
+      </c>
+      <c r="F245" t="s">
+        <v>442</v>
+      </c>
+      <c r="G245" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>30</v>
+      </c>
+      <c r="B246" t="s">
+        <v>78</v>
+      </c>
+      <c r="C246" t="s">
+        <v>541</v>
+      </c>
+      <c r="D246" t="s">
+        <v>679</v>
+      </c>
+      <c r="E246">
+        <v>7</v>
+      </c>
+      <c r="F246" t="s">
+        <v>442</v>
+      </c>
+      <c r="G246" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>30</v>
+      </c>
+      <c r="B247" t="s">
+        <v>68</v>
+      </c>
+      <c r="C247" t="s">
+        <v>556</v>
+      </c>
+      <c r="D247" t="s">
+        <v>679</v>
+      </c>
+      <c r="E247">
+        <v>8</v>
+      </c>
+      <c r="F247" t="s">
+        <v>442</v>
+      </c>
+      <c r="G247" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>30</v>
+      </c>
+      <c r="B248" t="s">
+        <v>210</v>
+      </c>
+      <c r="C248" t="s">
+        <v>554</v>
+      </c>
+      <c r="D248" t="s">
+        <v>679</v>
+      </c>
+      <c r="E248">
+        <v>9</v>
+      </c>
+      <c r="F248" t="s">
+        <v>442</v>
+      </c>
+      <c r="G248" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>30</v>
+      </c>
+      <c r="B249" t="s">
+        <v>204</v>
+      </c>
+      <c r="C249" t="s">
+        <v>554</v>
+      </c>
+      <c r="D249" t="s">
+        <v>679</v>
+      </c>
+      <c r="E249">
+        <v>10</v>
+      </c>
+      <c r="F249" t="s">
+        <v>442</v>
+      </c>
+      <c r="G249" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>31</v>
+      </c>
+      <c r="B250" t="s">
+        <v>585</v>
+      </c>
+      <c r="C250" t="s">
+        <v>560</v>
+      </c>
+      <c r="D250" t="s">
+        <v>680</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250" t="s">
+        <v>442</v>
+      </c>
+      <c r="G250" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>31</v>
+      </c>
+      <c r="B251" t="s">
+        <v>23</v>
+      </c>
+      <c r="C251" t="s">
+        <v>563</v>
+      </c>
+      <c r="D251" t="s">
+        <v>680</v>
+      </c>
+      <c r="E251">
+        <v>2</v>
+      </c>
+      <c r="F251" t="s">
+        <v>442</v>
+      </c>
+      <c r="G251" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>31</v>
+      </c>
+      <c r="B252" t="s">
+        <v>155</v>
+      </c>
+      <c r="C252" t="s">
+        <v>567</v>
+      </c>
+      <c r="D252" t="s">
+        <v>680</v>
+      </c>
+      <c r="E252">
+        <v>3</v>
+      </c>
+      <c r="F252" t="s">
+        <v>442</v>
+      </c>
+      <c r="G252" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>31</v>
+      </c>
+      <c r="B253" t="s">
+        <v>163</v>
+      </c>
+      <c r="C253" t="s">
+        <v>561</v>
+      </c>
+      <c r="D253" t="s">
+        <v>680</v>
+      </c>
+      <c r="E253">
+        <v>4</v>
+      </c>
+      <c r="F253" t="s">
+        <v>442</v>
+      </c>
+      <c r="G253" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>31</v>
+      </c>
+      <c r="B254" t="s">
+        <v>215</v>
+      </c>
+      <c r="C254" t="s">
+        <v>543</v>
+      </c>
+      <c r="D254" t="s">
+        <v>680</v>
+      </c>
+      <c r="E254">
+        <v>5</v>
+      </c>
+      <c r="F254" t="s">
+        <v>442</v>
+      </c>
+      <c r="G254" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>32</v>
+      </c>
+      <c r="B255" t="s">
+        <v>24</v>
+      </c>
+      <c r="C255" t="s">
+        <v>563</v>
+      </c>
+      <c r="D255" t="s">
+        <v>680</v>
+      </c>
+      <c r="E255">
+        <v>6</v>
+      </c>
+      <c r="F255" t="s">
+        <v>442</v>
+      </c>
+      <c r="G255" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>32</v>
+      </c>
+      <c r="B256" t="s">
+        <v>219</v>
+      </c>
+      <c r="C256" t="s">
+        <v>544</v>
+      </c>
+      <c r="D256" t="s">
+        <v>680</v>
+      </c>
+      <c r="E256">
+        <v>7</v>
+      </c>
+      <c r="F256" t="s">
+        <v>442</v>
+      </c>
+      <c r="G256" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>32</v>
+      </c>
+      <c r="B257" t="s">
+        <v>231</v>
+      </c>
+      <c r="C257" t="s">
+        <v>557</v>
+      </c>
+      <c r="D257" t="s">
+        <v>680</v>
+      </c>
+      <c r="E257">
+        <v>8</v>
+      </c>
+      <c r="F257" t="s">
+        <v>442</v>
+      </c>
+      <c r="G257" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>32</v>
+      </c>
+      <c r="B258" t="s">
+        <v>194</v>
+      </c>
+      <c r="C258" t="s">
+        <v>559</v>
+      </c>
+      <c r="D258" t="s">
+        <v>680</v>
+      </c>
+      <c r="E258">
+        <v>9</v>
+      </c>
+      <c r="F258" t="s">
+        <v>442</v>
+      </c>
+      <c r="G258" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>32</v>
+      </c>
+      <c r="B259" t="s">
+        <v>28</v>
+      </c>
+      <c r="C259" t="s">
+        <v>546</v>
+      </c>
+      <c r="D259" t="s">
+        <v>680</v>
+      </c>
+      <c r="E259">
+        <v>10</v>
+      </c>
+      <c r="F259" t="s">
+        <v>442</v>
+      </c>
+      <c r="G259" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>33</v>
+      </c>
+      <c r="B260" t="s">
+        <v>167</v>
+      </c>
+      <c r="C260" t="s">
+        <v>565</v>
+      </c>
+      <c r="D260" t="s">
+        <v>682</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260" t="s">
+        <v>442</v>
+      </c>
+      <c r="G260" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>33</v>
+      </c>
+      <c r="B261" t="s">
+        <v>236</v>
+      </c>
+      <c r="C261" t="s">
+        <v>565</v>
+      </c>
+      <c r="D261" t="s">
+        <v>682</v>
+      </c>
+      <c r="E261">
+        <v>2</v>
+      </c>
+      <c r="F261" t="s">
+        <v>442</v>
+      </c>
+      <c r="G261" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>33</v>
+      </c>
+      <c r="B262" t="s">
+        <v>240</v>
+      </c>
+      <c r="C262" t="s">
+        <v>567</v>
+      </c>
+      <c r="D262" t="s">
+        <v>682</v>
+      </c>
+      <c r="E262">
+        <v>3</v>
+      </c>
+      <c r="F262" t="s">
+        <v>442</v>
+      </c>
+      <c r="G262" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>33</v>
+      </c>
+      <c r="B263" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" t="s">
+        <v>553</v>
+      </c>
+      <c r="D263" t="s">
+        <v>682</v>
+      </c>
+      <c r="E263">
+        <v>4</v>
+      </c>
+      <c r="F263" t="s">
+        <v>442</v>
+      </c>
+      <c r="G263" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>33</v>
+      </c>
+      <c r="B264" t="s">
+        <v>130</v>
+      </c>
+      <c r="C264" t="s">
+        <v>549</v>
+      </c>
+      <c r="D264" t="s">
+        <v>682</v>
+      </c>
+      <c r="E264">
+        <v>5</v>
+      </c>
+      <c r="F264" t="s">
+        <v>442</v>
+      </c>
+      <c r="G264" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>34</v>
+      </c>
+      <c r="B265" t="s">
+        <v>64</v>
+      </c>
+      <c r="C265" t="s">
+        <v>566</v>
+      </c>
+      <c r="D265" t="s">
+        <v>683</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265" t="s">
+        <v>442</v>
+      </c>
+      <c r="G265" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>34</v>
+      </c>
+      <c r="B266" t="s">
+        <v>34</v>
+      </c>
+      <c r="C266" t="s">
+        <v>546</v>
+      </c>
+      <c r="D266" t="s">
+        <v>683</v>
+      </c>
+      <c r="E266">
+        <v>2</v>
+      </c>
+      <c r="F266" t="s">
+        <v>442</v>
+      </c>
+      <c r="G266" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>34</v>
+      </c>
+      <c r="B267" t="s">
+        <v>136</v>
+      </c>
+      <c r="C267" t="s">
+        <v>557</v>
+      </c>
+      <c r="D267" t="s">
+        <v>683</v>
+      </c>
+      <c r="E267">
+        <v>3</v>
+      </c>
+      <c r="F267" t="s">
+        <v>442</v>
+      </c>
+      <c r="G267" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>34</v>
+      </c>
+      <c r="B268" t="s">
+        <v>108</v>
+      </c>
+      <c r="C268" t="s">
+        <v>568</v>
+      </c>
+      <c r="D268" t="s">
+        <v>683</v>
+      </c>
+      <c r="E268">
+        <v>4</v>
+      </c>
+      <c r="F268" t="s">
+        <v>442</v>
+      </c>
+      <c r="G268" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>34</v>
+      </c>
+      <c r="B269" t="s">
+        <v>539</v>
+      </c>
+      <c r="C269" t="s">
+        <v>552</v>
+      </c>
+      <c r="D269" t="s">
+        <v>683</v>
+      </c>
+      <c r="E269">
+        <v>5</v>
+      </c>
+      <c r="F269" t="s">
+        <v>442</v>
+      </c>
+      <c r="G269" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>34</v>
+      </c>
+      <c r="B270" t="s">
+        <v>105</v>
+      </c>
+      <c r="C270" t="s">
+        <v>568</v>
+      </c>
+      <c r="D270" t="s">
+        <v>683</v>
+      </c>
+      <c r="E270">
+        <v>6</v>
+      </c>
+      <c r="F270" t="s">
+        <v>442</v>
+      </c>
+      <c r="G270" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>34</v>
+      </c>
+      <c r="B271" t="s">
+        <v>118</v>
+      </c>
+      <c r="C271" t="s">
+        <v>555</v>
+      </c>
+      <c r="D271" t="s">
+        <v>683</v>
+      </c>
+      <c r="E271">
+        <v>7</v>
+      </c>
+      <c r="F271" t="s">
+        <v>442</v>
+      </c>
+      <c r="G271" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>34</v>
+      </c>
+      <c r="B272" t="s">
+        <v>225</v>
+      </c>
+      <c r="C272" t="s">
+        <v>551</v>
+      </c>
+      <c r="D272" t="s">
+        <v>683</v>
+      </c>
+      <c r="E272">
+        <v>8</v>
+      </c>
+      <c r="F272" t="s">
+        <v>442</v>
+      </c>
+      <c r="G272" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>34</v>
+      </c>
+      <c r="B273" t="s">
+        <v>586</v>
+      </c>
+      <c r="C273" t="s">
+        <v>564</v>
+      </c>
+      <c r="D273" t="s">
+        <v>683</v>
+      </c>
+      <c r="E273">
+        <v>9</v>
+      </c>
+      <c r="F273" t="s">
+        <v>442</v>
+      </c>
+      <c r="G273" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>34</v>
+      </c>
+      <c r="B274" t="s">
+        <v>609</v>
+      </c>
+      <c r="C274" t="s">
+        <v>545</v>
+      </c>
+      <c r="D274" t="s">
+        <v>683</v>
+      </c>
+      <c r="E274">
+        <v>10</v>
+      </c>
+      <c r="F274" t="s">
+        <v>442</v>
+      </c>
+      <c r="G274" t="s">
+        <v>698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F274"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18521,7 +24854,7 @@
         <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>70</v>
+        <v>695</v>
       </c>
       <c r="C177" t="s">
         <v>556</v>
@@ -20078,7 +26411,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B255" t="s">
         <v>24</v>
@@ -20098,7 +26431,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B256" t="s">
         <v>219</v>
@@ -20118,7 +26451,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B257" t="s">
         <v>231</v>
@@ -20138,7 +26471,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B258" t="s">
         <v>194</v>
@@ -20158,7 +26491,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B259" t="s">
         <v>28</v>
@@ -20178,16 +26511,16 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B260" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="C260" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D260" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -20198,16 +26531,16 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B261" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="C261" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="D261" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E261">
         <v>2</v>
@@ -20218,16 +26551,16 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B262" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C262" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="D262" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E262">
         <v>3</v>
@@ -20238,16 +26571,16 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B263" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="C263" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D263" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E263">
         <v>4</v>
@@ -20258,16 +26591,16 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B264" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C264" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D264" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E264">
         <v>5</v>
@@ -20278,16 +26611,16 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B265" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="C265" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D265" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -20298,16 +26631,16 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B266" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="C266" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="D266" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E266">
         <v>2</v>
@@ -20318,16 +26651,16 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B267" t="s">
-        <v>240</v>
+        <v>136</v>
       </c>
       <c r="C267" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D267" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E267">
         <v>3</v>
@@ -20338,16 +26671,16 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B268" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="C268" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="D268" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E268">
         <v>4</v>
@@ -20358,16 +26691,16 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B269" t="s">
-        <v>130</v>
+        <v>539</v>
       </c>
       <c r="C269" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D269" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E269">
         <v>5</v>
@@ -20381,16 +26714,16 @@
         <v>34</v>
       </c>
       <c r="B270" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C270" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D270" t="s">
         <v>683</v>
       </c>
       <c r="E270">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F270" t="s">
         <v>442</v>
@@ -20401,16 +26734,16 @@
         <v>34</v>
       </c>
       <c r="B271" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="C271" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="D271" t="s">
         <v>683</v>
       </c>
       <c r="E271">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F271" t="s">
         <v>442</v>
@@ -20421,16 +26754,16 @@
         <v>34</v>
       </c>
       <c r="B272" t="s">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="C272" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D272" t="s">
         <v>683</v>
       </c>
       <c r="E272">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F272" t="s">
         <v>442</v>
@@ -20441,16 +26774,16 @@
         <v>34</v>
       </c>
       <c r="B273" t="s">
-        <v>108</v>
+        <v>586</v>
       </c>
       <c r="C273" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D273" t="s">
         <v>683</v>
       </c>
       <c r="E273">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F273" t="s">
         <v>442</v>
@@ -20461,118 +26794,18 @@
         <v>34</v>
       </c>
       <c r="B274" t="s">
-        <v>539</v>
+        <v>609</v>
       </c>
       <c r="C274" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D274" t="s">
         <v>683</v>
       </c>
       <c r="E274">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275">
-        <v>34</v>
-      </c>
-      <c r="B275" t="s">
-        <v>105</v>
-      </c>
-      <c r="C275" t="s">
-        <v>568</v>
-      </c>
-      <c r="D275" t="s">
-        <v>683</v>
-      </c>
-      <c r="E275">
-        <v>6</v>
-      </c>
-      <c r="F275" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276">
-        <v>34</v>
-      </c>
-      <c r="B276" t="s">
-        <v>118</v>
-      </c>
-      <c r="C276" t="s">
-        <v>555</v>
-      </c>
-      <c r="D276" t="s">
-        <v>683</v>
-      </c>
-      <c r="E276">
-        <v>7</v>
-      </c>
-      <c r="F276" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277">
-        <v>34</v>
-      </c>
-      <c r="B277" t="s">
-        <v>225</v>
-      </c>
-      <c r="C277" t="s">
-        <v>551</v>
-      </c>
-      <c r="D277" t="s">
-        <v>683</v>
-      </c>
-      <c r="E277">
-        <v>8</v>
-      </c>
-      <c r="F277" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278">
-        <v>34</v>
-      </c>
-      <c r="B278" t="s">
-        <v>586</v>
-      </c>
-      <c r="C278" t="s">
-        <v>564</v>
-      </c>
-      <c r="D278" t="s">
-        <v>683</v>
-      </c>
-      <c r="E278">
-        <v>9</v>
-      </c>
-      <c r="F278" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279">
-        <v>34</v>
-      </c>
-      <c r="B279" t="s">
-        <v>609</v>
-      </c>
-      <c r="C279" t="s">
-        <v>545</v>
-      </c>
-      <c r="D279" t="s">
-        <v>683</v>
-      </c>
-      <c r="E279">
-        <v>10</v>
-      </c>
-      <c r="F279" t="s">
         <v>442</v>
       </c>
     </row>
